--- a/Stimuli/Sent.xlsx
+++ b/Stimuli/Sent.xlsx
@@ -1979,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T201"/>
+  <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+      <selection sqref="A1:T193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13957,32 +13957,6 @@
       <c r="T193" s="6" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
